--- a/data/trans_orig/P19C10_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Dificultad-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P19C10_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Dificultad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8972</v>
+        <v>9098</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005609096964544574</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01983746275047715</v>
+        <v>0.02011555741121166</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>4670</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10920</v>
+        <v>10688</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007925395613442543</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002860040860252961</v>
+        <v>0.002854046883142377</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01853407371877102</v>
+        <v>0.01813986781467117</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -783,19 +783,19 @@
         <v>7206</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3400</v>
+        <v>3074</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15692</v>
+        <v>14848</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0069194934061319</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003265006291033695</v>
+        <v>0.002951359889011314</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01506665040701885</v>
+        <v>0.01425672211930104</v>
       </c>
     </row>
     <row r="5">
@@ -812,16 +812,16 @@
         <v>449747</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443312</v>
+        <v>443186</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>452284</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9943909030354554</v>
+        <v>0.9943909030354553</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9801625372495226</v>
+        <v>0.9798844425887884</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>584523</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>578273</v>
+        <v>578505</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>587508</v>
+        <v>587511</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9920746043865575</v>
+        <v>0.9920746043865576</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9814659262812291</v>
+        <v>0.9818601321853281</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9971399591397471</v>
+        <v>0.9971459531168577</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1221</v>
@@ -854,19 +854,19 @@
         <v>1034271</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1025785</v>
+        <v>1026629</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1038077</v>
+        <v>1038403</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.993080506593868</v>
+        <v>0.9930805065938682</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9849333495929812</v>
+        <v>0.9857432778806987</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9967349937089662</v>
+        <v>0.9970486401109886</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7786</v>
+        <v>8535</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002505068717072856</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008451791589279977</v>
+        <v>0.009265481344180657</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -979,19 +979,19 @@
         <v>6090</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3011</v>
+        <v>3051</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11107</v>
+        <v>11034</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005601850203444098</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002769934302121063</v>
+        <v>0.002806052227768315</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0102165708675493</v>
+        <v>0.01015012301011594</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1000,19 +1000,19 @@
         <v>8398</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4449</v>
+        <v>4192</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14927</v>
+        <v>15577</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00418141425326386</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002215223885903258</v>
+        <v>0.002087316272385928</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007432737890792884</v>
+        <v>0.007756411864070757</v>
       </c>
     </row>
     <row r="8">
@@ -1029,16 +1029,16 @@
         <v>918860</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>913382</v>
+        <v>912633</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>921168</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9974949312829272</v>
+        <v>0.9974949312829271</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9915482084107199</v>
+        <v>0.9907345186558187</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1050,19 +1050,19 @@
         <v>1081038</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1076021</v>
+        <v>1076094</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1084117</v>
+        <v>1084077</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9943981497965558</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9897834291324508</v>
+        <v>0.9898498769898841</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.997230065697879</v>
+        <v>0.9971939477722316</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2435</v>
@@ -1071,19 +1071,19 @@
         <v>1999898</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1993369</v>
+        <v>1992719</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2003847</v>
+        <v>2004104</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9958185857467361</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9925672621092073</v>
+        <v>0.9922435881359297</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9977847761140968</v>
+        <v>0.9979126837276144</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11181</v>
+        <v>11174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0030669744569647</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01090874603361205</v>
+        <v>0.01090185501624636</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1196,19 +1196,19 @@
         <v>6459</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2874</v>
+        <v>3102</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12644</v>
+        <v>13381</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.006270677480384913</v>
+        <v>0.006270677480384914</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002790273830305637</v>
+        <v>0.003011045837189114</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01227492076684009</v>
+        <v>0.01299034564804329</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1217,19 +1217,19 @@
         <v>9603</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4572</v>
+        <v>5107</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18616</v>
+        <v>18930</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.004672867526895225</v>
+        <v>0.004672867526895227</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002224792911370435</v>
+        <v>0.002485081537571253</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009058658873989269</v>
+        <v>0.009211387294971571</v>
       </c>
     </row>
     <row r="11">
@@ -1246,16 +1246,16 @@
         <v>1021775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1013737</v>
+        <v>1013744</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>1024918</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9969330255430352</v>
+        <v>0.9969330255430353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9890912539663879</v>
+        <v>0.9890981449837538</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,19 +1267,19 @@
         <v>1023644</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1017459</v>
+        <v>1016722</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1027229</v>
+        <v>1027001</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9937293225196151</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9877250792331593</v>
+        <v>0.9870096543519565</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972097261696943</v>
+        <v>0.9969889541628109</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2490</v>
@@ -1288,19 +1288,19 @@
         <v>2045419</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2036406</v>
+        <v>2036092</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2050450</v>
+        <v>2049915</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9953271324731046</v>
+        <v>0.9953271324731048</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9909413411260108</v>
+        <v>0.9907886127050284</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9977752070886295</v>
+        <v>0.9975149184624287</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>2767</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8484</v>
+        <v>7780</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002912840248449678</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0005343675882048581</v>
+        <v>0.0005166780736635514</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.008930063885021737</v>
+        <v>0.008189087330812172</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1413,19 +1413,19 @@
         <v>5058</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2082</v>
+        <v>2195</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10464</v>
+        <v>10811</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005742776204935691</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002363593378065805</v>
+        <v>0.002492226466318935</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01188135351247431</v>
+        <v>0.01227535602089151</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1434,19 +1434,19 @@
         <v>7825</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3749</v>
+        <v>3680</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14081</v>
+        <v>14825</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004274284346211604</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002047845119460232</v>
+        <v>0.002009899110567597</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007691674568867829</v>
+        <v>0.008097682559613654</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>947231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>941514</v>
+        <v>942218</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>949490</v>
+        <v>949507</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9970871597515504</v>
+        <v>0.9970871597515503</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9910699361149782</v>
+        <v>0.9918109126691877</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9994656324117951</v>
+        <v>0.9994833219263364</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1276</v>
@@ -1484,19 +1484,19 @@
         <v>875688</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>870282</v>
+        <v>869935</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>878664</v>
+        <v>878551</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9942572237950645</v>
+        <v>0.9942572237950644</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9881186464875258</v>
+        <v>0.9877246439791082</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9976364066219341</v>
+        <v>0.9975077735336808</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2194</v>
@@ -1505,19 +1505,19 @@
         <v>1822919</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1816663</v>
+        <v>1815919</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1826995</v>
+        <v>1827064</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9957257156537883</v>
+        <v>0.9957257156537884</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9923083254311322</v>
+        <v>0.9919023174403863</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9979521548805398</v>
+        <v>0.9979901008894324</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>10755</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5176</v>
+        <v>4987</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21450</v>
+        <v>19532</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003212037260192182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001545680814342594</v>
+        <v>0.001489259429046378</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006406102730099943</v>
+        <v>0.005833188763662287</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1630,19 +1630,19 @@
         <v>22277</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15413</v>
+        <v>15220</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32348</v>
+        <v>31237</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006210156461636386</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004296656201293507</v>
+        <v>0.004242833929736198</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009017689970677591</v>
+        <v>0.008708007733289468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -1651,19 +1651,19 @@
         <v>33032</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23983</v>
+        <v>22956</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46789</v>
+        <v>46692</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.004762712231524674</v>
+        <v>0.004762712231524675</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003457940927168615</v>
+        <v>0.00330995445106502</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006746261506048339</v>
+        <v>0.006732210066905452</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3337613</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3326918</v>
+        <v>3328836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3343192</v>
+        <v>3343381</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9967879627398079</v>
+        <v>0.9967879627398077</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9935938972699004</v>
+        <v>0.994166811236338</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9984543191856574</v>
+        <v>0.9985107405709537</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5129</v>
@@ -1701,19 +1701,19 @@
         <v>3564894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3554823</v>
+        <v>3555934</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3571758</v>
+        <v>3571951</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9937898435383635</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9909823100293225</v>
+        <v>0.9912919922667104</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9957033437987065</v>
+        <v>0.9957571660702637</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8340</v>
@@ -1722,19 +1722,19 @@
         <v>6902507</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6888750</v>
+        <v>6888847</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6911556</v>
+        <v>6912583</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9952372877684753</v>
+        <v>0.9952372877684754</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9932537384939509</v>
+        <v>0.9932677899330958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.996542059072831</v>
+        <v>0.9966900455489351</v>
       </c>
     </row>
     <row r="18">
